--- a/1_zavodnici.xlsx
+++ b/1_zavodnici.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2994FE-12FD-41EC-91BD-478F8FAC442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-288" yWindow="-14208" windowWidth="19668" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="223">
   <si>
     <t>Name</t>
   </si>
@@ -34,7 +43,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t>ADDO DJAN Theodor</t>
+    <t>ADAM Ondřej</t>
+  </si>
+  <si>
+    <t>ADDO DJAN Theodor Ezekiel</t>
   </si>
   <si>
     <t>AIGERMAN František</t>
@@ -55,6 +67,9 @@
     <t>BALCAR Josef</t>
   </si>
   <si>
+    <t>BAUER Jiří</t>
+  </si>
+  <si>
     <t>BEDNÁR Kryštof</t>
   </si>
   <si>
@@ -109,12 +124,15 @@
     <t>DOŠEK Jiří</t>
   </si>
   <si>
-    <t>DUDUC Alex Vladimir</t>
+    <t>DUDUC Alex Vladimír</t>
   </si>
   <si>
     <t>DURYCH Martin</t>
   </si>
   <si>
+    <t>DÁŇA Vojtěch</t>
+  </si>
+  <si>
     <t>ERNÉE Jan</t>
   </si>
   <si>
@@ -160,6 +178,9 @@
     <t>HOYER Martin</t>
   </si>
   <si>
+    <t>HRADEČNÝ Vojtěch</t>
+  </si>
+  <si>
     <t>HRONEK Ondřej</t>
   </si>
   <si>
@@ -235,12 +256,24 @@
     <t>KNOP Tadeáš</t>
   </si>
   <si>
+    <t>KOLBE Stanislav</t>
+  </si>
+  <si>
+    <t>KONEČNÝ Antonín</t>
+  </si>
+  <si>
     <t>KOTALA Jan</t>
   </si>
   <si>
     <t>KOUŘIL Jan</t>
   </si>
   <si>
+    <t>KOVACKI Milos</t>
+  </si>
+  <si>
+    <t>KRACMAN Tomáš</t>
+  </si>
+  <si>
     <t>KRAJSA Tomáš</t>
   </si>
   <si>
@@ -265,6 +298,9 @@
     <t>KŘÍŽ Petr</t>
   </si>
   <si>
+    <t>LIBICH Vladimír</t>
+  </si>
+  <si>
     <t>LOKAJ Václav</t>
   </si>
   <si>
@@ -283,9 +319,18 @@
     <t>MALEČEK Jakub</t>
   </si>
   <si>
+    <t>MALÝ Vojtěch</t>
+  </si>
+  <si>
     <t>MATOUŠEK David</t>
   </si>
   <si>
+    <t>MAZANEC Matěj</t>
+  </si>
+  <si>
+    <t>MAZANEC Vojtěch</t>
+  </si>
+  <si>
     <t>MAŠATA Vojtěch</t>
   </si>
   <si>
@@ -298,6 +343,9 @@
     <t>MRÁZ Pavel</t>
   </si>
   <si>
+    <t>MUSIL Tomáš</t>
+  </si>
+  <si>
     <t>MÜNZBERGER Vladimír</t>
   </si>
   <si>
@@ -310,6 +358,12 @@
     <t>NOVÁK Martin</t>
   </si>
   <si>
+    <t>NÁROVEC Václav</t>
+  </si>
+  <si>
+    <t>OCHEC Prokop</t>
+  </si>
+  <si>
     <t>OMELKA Antonín</t>
   </si>
   <si>
@@ -319,6 +373,9 @@
     <t>OSIČKA Adam</t>
   </si>
   <si>
+    <t>PATOČKA Marek</t>
+  </si>
+  <si>
     <t>PAVLÍK Matyáš</t>
   </si>
   <si>
@@ -343,6 +400,9 @@
     <t>RUBEŠ Martin</t>
   </si>
   <si>
+    <t>RUSIN Illia</t>
+  </si>
+  <si>
     <t>SADSKÝ Jaroslav</t>
   </si>
   <si>
@@ -370,12 +430,18 @@
     <t>SMRČEK Šimon</t>
   </si>
   <si>
+    <t>SMUTNÝ Richard</t>
+  </si>
+  <si>
     <t>SMÍTKA Jan</t>
   </si>
   <si>
     <t>SOKOL Vratislav</t>
   </si>
   <si>
+    <t>SOKOLOV Sevastyan</t>
+  </si>
+  <si>
     <t>STEHLÍK Jan</t>
   </si>
   <si>
@@ -403,6 +469,12 @@
     <t>SVOBODA Bohumil Jiří</t>
   </si>
   <si>
+    <t>SVOBODA Ivo</t>
+  </si>
+  <si>
+    <t>SVOBODA Jakub</t>
+  </si>
+  <si>
     <t>SVOBODA Tomáš</t>
   </si>
   <si>
@@ -493,6 +565,9 @@
     <t>ŠVANDA Pavel</t>
   </si>
   <si>
+    <t>VUT BRNO</t>
+  </si>
+  <si>
     <t>SOKOL DEJVICE</t>
   </si>
   <si>
@@ -508,15 +583,15 @@
     <t>SČ USTI NAD LABEM</t>
   </si>
   <si>
+    <t>TJ DUKLA PRAHA</t>
+  </si>
+  <si>
     <t>SC PRAHA</t>
   </si>
   <si>
     <t>BSK MARTINENGO</t>
   </si>
   <si>
-    <t>TJ DUKLA PRAHA</t>
-  </si>
-  <si>
     <t>ŠERM LIBEREC</t>
   </si>
   <si>
@@ -526,7 +601,7 @@
     <t>DUKLA OLOMOUC</t>
   </si>
   <si>
-    <t>SP Š TÁBOR</t>
+    <t>SP.Š. TÁBOR</t>
   </si>
   <si>
     <t>1.FC BELA POD BEZ</t>
@@ -544,6 +619,9 @@
     <t>TJ SLOVAN HORKY</t>
   </si>
   <si>
+    <t>ŠERM MASTERS</t>
+  </si>
+  <si>
     <t>TJ SOKOL PISEK</t>
   </si>
   <si>
@@ -559,6 +637,9 @@
     <t>TJ LOKO PLZEN</t>
   </si>
   <si>
+    <t>AUT</t>
+  </si>
+  <si>
     <t>S.BRNO I</t>
   </si>
   <si>
@@ -566,6 +647,9 @@
   </si>
   <si>
     <t>SOKOL PLZEN</t>
+  </si>
+  <si>
+    <t>POL</t>
   </si>
   <si>
     <t>SLAVOJ LITOMERICE</t>
@@ -613,11 +697,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,12 +715,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -669,18 +756,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -727,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +857,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,6 +909,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,14 +1102,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,2214 +1129,2214 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="2">
-        <v>39027</v>
+        <v>222</v>
+      </c>
+      <c r="E2" s="3">
+        <v>34207</v>
       </c>
       <c r="F2">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="2">
-        <v>26542</v>
+        <v>222</v>
+      </c>
+      <c r="E3" s="3">
+        <v>39027</v>
       </c>
       <c r="F3">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="2">
-        <v>39054</v>
+        <v>222</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26542</v>
       </c>
       <c r="F4">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="2">
-        <v>35788</v>
+        <v>222</v>
+      </c>
+      <c r="E5" s="3">
+        <v>39054</v>
       </c>
       <c r="F5">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="2">
-        <v>28313</v>
+        <v>222</v>
+      </c>
+      <c r="E6" s="3">
+        <v>35788</v>
       </c>
       <c r="F6">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="2">
-        <v>37324</v>
+        <v>222</v>
+      </c>
+      <c r="E7" s="3">
+        <v>28313</v>
       </c>
       <c r="F7">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="2">
-        <v>36099</v>
+        <v>222</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37324</v>
       </c>
       <c r="F8">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E9" s="2">
-        <v>35522</v>
+        <v>222</v>
+      </c>
+      <c r="E9" s="3">
+        <v>36099</v>
       </c>
       <c r="F9">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="2">
-        <v>29969</v>
+        <v>222</v>
+      </c>
+      <c r="E10" s="3">
+        <v>37603</v>
       </c>
       <c r="F10">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="2">
-        <v>30021</v>
+        <v>222</v>
+      </c>
+      <c r="E11" s="3">
+        <v>35522</v>
       </c>
       <c r="F11">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="2">
-        <v>34040</v>
+        <v>222</v>
+      </c>
+      <c r="E12" s="3">
+        <v>29969</v>
       </c>
       <c r="F12">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="2">
-        <v>36970</v>
+        <v>222</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30021</v>
       </c>
       <c r="F13">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="2">
-        <v>35842</v>
+        <v>222</v>
+      </c>
+      <c r="E14" s="3">
+        <v>34040</v>
       </c>
       <c r="F14">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="2">
-        <v>35185</v>
+        <v>222</v>
+      </c>
+      <c r="E15" s="3">
+        <v>36970</v>
       </c>
       <c r="F15">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="2">
-        <v>38473</v>
+        <v>222</v>
+      </c>
+      <c r="E16" s="3">
+        <v>35842</v>
       </c>
       <c r="F16">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="2">
-        <v>34304</v>
+        <v>222</v>
+      </c>
+      <c r="E17" s="3">
+        <v>35185</v>
       </c>
       <c r="F17">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="2">
-        <v>39129</v>
+        <v>222</v>
+      </c>
+      <c r="E18" s="3">
+        <v>38473</v>
       </c>
       <c r="F18">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="2">
-        <v>37753</v>
+        <v>222</v>
+      </c>
+      <c r="E19" s="3">
+        <v>34304</v>
       </c>
       <c r="F19">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E20" s="2">
-        <v>38600</v>
+        <v>222</v>
+      </c>
+      <c r="E20" s="3">
+        <v>39129</v>
       </c>
       <c r="F20">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="2">
-        <v>33038</v>
+        <v>222</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37753</v>
       </c>
       <c r="F21">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="2">
-        <v>30117</v>
+        <v>222</v>
+      </c>
+      <c r="E22" s="3">
+        <v>38600</v>
       </c>
       <c r="F22">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" s="2">
-        <v>37662</v>
+        <v>222</v>
+      </c>
+      <c r="E23" s="3">
+        <v>33038</v>
       </c>
       <c r="F23">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="2">
-        <v>35542</v>
+        <v>222</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30117</v>
       </c>
       <c r="F24">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="2">
-        <v>34315</v>
+        <v>222</v>
+      </c>
+      <c r="E25" s="3">
+        <v>37662</v>
       </c>
       <c r="F25">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E26" s="2">
-        <v>38161</v>
+        <v>222</v>
+      </c>
+      <c r="E26" s="3">
+        <v>35542</v>
       </c>
       <c r="F26">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="2">
-        <v>35582</v>
+        <v>222</v>
+      </c>
+      <c r="E27" s="3">
+        <v>34315</v>
       </c>
       <c r="F27">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="2">
-        <v>34349</v>
+        <v>222</v>
+      </c>
+      <c r="E28" s="3">
+        <v>38161</v>
       </c>
       <c r="F28">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="2">
-        <v>36046</v>
+        <v>222</v>
+      </c>
+      <c r="E29" s="3">
+        <v>35582</v>
       </c>
       <c r="F29">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="2">
-        <v>38019</v>
+        <v>222</v>
+      </c>
+      <c r="E30" s="3">
+        <v>34349</v>
       </c>
       <c r="F30">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
-      </c>
-      <c r="E31" s="2">
-        <v>37694</v>
+        <v>222</v>
+      </c>
+      <c r="E31" s="3">
+        <v>37614</v>
       </c>
       <c r="F31">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="2">
-        <v>31413</v>
+        <v>222</v>
+      </c>
+      <c r="E32" s="3">
+        <v>36046</v>
       </c>
       <c r="F32">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="2">
-        <v>38471</v>
+        <v>222</v>
+      </c>
+      <c r="E33" s="3">
+        <v>38019</v>
       </c>
       <c r="F33">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="2">
-        <v>28615</v>
+        <v>222</v>
+      </c>
+      <c r="E34" s="3">
+        <v>37694</v>
       </c>
       <c r="F34">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="2">
-        <v>33791</v>
+        <v>222</v>
+      </c>
+      <c r="E35" s="3">
+        <v>31413</v>
       </c>
       <c r="F35">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="2">
-        <v>36409</v>
+        <v>222</v>
+      </c>
+      <c r="E36" s="3">
+        <v>38471</v>
       </c>
       <c r="F36">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="2">
-        <v>33562</v>
+        <v>222</v>
+      </c>
+      <c r="E37" s="3">
+        <v>28615</v>
       </c>
       <c r="F37">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="2">
-        <v>33673</v>
+        <v>222</v>
+      </c>
+      <c r="E38" s="3">
+        <v>33791</v>
       </c>
       <c r="F38">
         <v>1992</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="2">
-        <v>21027</v>
+        <v>222</v>
+      </c>
+      <c r="E39" s="3">
+        <v>36409</v>
       </c>
       <c r="F39">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
-      </c>
-      <c r="E40" s="2">
-        <v>32598</v>
+        <v>222</v>
+      </c>
+      <c r="E40" s="3">
+        <v>33562</v>
       </c>
       <c r="F40">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="2">
-        <v>30503</v>
+        <v>222</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33673</v>
       </c>
       <c r="F41">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
-      </c>
-      <c r="E42" s="2">
-        <v>26426</v>
+        <v>222</v>
+      </c>
+      <c r="E42" s="3">
+        <v>21027</v>
       </c>
       <c r="F42">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="2">
-        <v>24801</v>
+        <v>222</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32598</v>
       </c>
       <c r="F43">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="2">
-        <v>39432</v>
+        <v>222</v>
+      </c>
+      <c r="E44" s="3">
+        <v>30503</v>
       </c>
       <c r="F44">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="2">
-        <v>36890</v>
+        <v>222</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26426</v>
       </c>
       <c r="F45">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" s="2">
-        <v>26996</v>
+        <v>222</v>
+      </c>
+      <c r="E46" s="3">
+        <v>24801</v>
       </c>
       <c r="F46">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="2">
-        <v>37050</v>
+        <v>222</v>
+      </c>
+      <c r="E47" s="3">
+        <v>34518</v>
       </c>
       <c r="F47">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
-      </c>
-      <c r="E48" s="2">
-        <v>36441</v>
+        <v>222</v>
+      </c>
+      <c r="E48" s="3">
+        <v>39432</v>
       </c>
       <c r="F48">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="2">
-        <v>29600</v>
+        <v>222</v>
+      </c>
+      <c r="E49" s="3">
+        <v>36890</v>
       </c>
       <c r="F49">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
-      </c>
-      <c r="E50" s="2">
-        <v>37627</v>
+        <v>222</v>
+      </c>
+      <c r="E50" s="3">
+        <v>26996</v>
       </c>
       <c r="F50">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="2">
-        <v>36285</v>
+        <v>222</v>
+      </c>
+      <c r="E51" s="3">
+        <v>37050</v>
       </c>
       <c r="F51">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="2">
-        <v>30843</v>
+        <v>222</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36441</v>
       </c>
       <c r="F52">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="2">
-        <v>37523</v>
+        <v>222</v>
+      </c>
+      <c r="E53" s="3">
+        <v>29600</v>
       </c>
       <c r="F53">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="2">
-        <v>20718</v>
+        <v>222</v>
+      </c>
+      <c r="E54" s="3">
+        <v>37627</v>
       </c>
       <c r="F54">
-        <v>1956</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="2">
-        <v>35277</v>
+        <v>222</v>
+      </c>
+      <c r="E55" s="3">
+        <v>36285</v>
       </c>
       <c r="F55">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="2">
-        <v>36324</v>
+        <v>222</v>
+      </c>
+      <c r="E56" s="3">
+        <v>30843</v>
       </c>
       <c r="F56">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="2">
-        <v>35431</v>
+        <v>222</v>
+      </c>
+      <c r="E57" s="3">
+        <v>37523</v>
       </c>
       <c r="F57">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="2">
-        <v>25022</v>
+        <v>222</v>
+      </c>
+      <c r="E58" s="3">
+        <v>20718</v>
       </c>
       <c r="F58">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="2">
-        <v>37822</v>
+        <v>222</v>
+      </c>
+      <c r="E59" s="3">
+        <v>35277</v>
       </c>
       <c r="F59">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="2">
-        <v>37583</v>
+        <v>222</v>
+      </c>
+      <c r="E60" s="3">
+        <v>36324</v>
       </c>
       <c r="F60">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="2">
-        <v>27294</v>
+        <v>222</v>
+      </c>
+      <c r="E61" s="3">
+        <v>35431</v>
       </c>
       <c r="F61">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="2">
-        <v>30784</v>
+        <v>222</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25022</v>
       </c>
       <c r="F62">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="2">
-        <v>29419</v>
+        <v>222</v>
+      </c>
+      <c r="E63" s="3">
+        <v>37822</v>
       </c>
       <c r="F63">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="2">
-        <v>33596</v>
+        <v>222</v>
+      </c>
+      <c r="E64" s="3">
+        <v>37583</v>
       </c>
       <c r="F64">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="2">
-        <v>37683</v>
+        <v>222</v>
+      </c>
+      <c r="E65" s="3">
+        <v>27294</v>
       </c>
       <c r="F65">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" s="2">
-        <v>33414</v>
+        <v>222</v>
+      </c>
+      <c r="E66" s="3">
+        <v>30784</v>
       </c>
       <c r="F66">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" s="2">
-        <v>28784</v>
+        <v>222</v>
+      </c>
+      <c r="E67" s="3">
+        <v>29419</v>
       </c>
       <c r="F67">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="2">
-        <v>38056</v>
+        <v>222</v>
+      </c>
+      <c r="E68" s="3">
+        <v>33596</v>
       </c>
       <c r="F68">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" s="2">
-        <v>38299</v>
+        <v>222</v>
+      </c>
+      <c r="E69" s="3">
+        <v>37683</v>
       </c>
       <c r="F69">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70" s="2">
-        <v>32227</v>
+        <v>222</v>
+      </c>
+      <c r="E70" s="3">
+        <v>33414</v>
       </c>
       <c r="F70">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="2">
-        <v>30053</v>
+        <v>222</v>
+      </c>
+      <c r="E71" s="3">
+        <v>28784</v>
       </c>
       <c r="F71">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
-      </c>
-      <c r="E72" s="2">
-        <v>37115</v>
+        <v>222</v>
+      </c>
+      <c r="E72" s="3">
+        <v>38056</v>
       </c>
       <c r="F72">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" s="2">
-        <v>38168</v>
+        <v>222</v>
+      </c>
+      <c r="E73" s="3">
+        <v>28701</v>
       </c>
       <c r="F73">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E74" s="2">
-        <v>38752</v>
+        <v>222</v>
+      </c>
+      <c r="E74" s="3">
+        <v>35423</v>
       </c>
       <c r="F74">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
-      </c>
-      <c r="E75" s="2">
-        <v>33369</v>
+        <v>222</v>
+      </c>
+      <c r="E75" s="3">
+        <v>38299</v>
       </c>
       <c r="F75">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
-      </c>
-      <c r="E76" s="2">
-        <v>34789</v>
+        <v>222</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32227</v>
       </c>
       <c r="F76">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="2">
-        <v>38588</v>
+        <v>222</v>
+      </c>
+      <c r="E77" s="3">
+        <v>35065</v>
       </c>
       <c r="F77">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
-      </c>
-      <c r="E78" s="2">
-        <v>32982</v>
+        <v>222</v>
+      </c>
+      <c r="E78" s="3">
+        <v>38917</v>
       </c>
       <c r="F78">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C79" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
-      </c>
-      <c r="E79" s="2">
-        <v>36047</v>
+        <v>222</v>
+      </c>
+      <c r="E79" s="3">
+        <v>30053</v>
       </c>
       <c r="F79">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
-      </c>
-      <c r="E80" s="2">
-        <v>36950</v>
+        <v>222</v>
+      </c>
+      <c r="E80" s="3">
+        <v>37115</v>
       </c>
       <c r="F80">
         <v>2001</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
-      </c>
-      <c r="E81" s="2">
-        <v>37358</v>
+        <v>222</v>
+      </c>
+      <c r="E81" s="3">
+        <v>38168</v>
       </c>
       <c r="F81">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
-      </c>
-      <c r="E82" s="2">
-        <v>38308</v>
+        <v>222</v>
+      </c>
+      <c r="E82" s="3">
+        <v>38752</v>
       </c>
       <c r="F82">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="2">
-        <v>26808</v>
+        <v>222</v>
+      </c>
+      <c r="E83" s="3">
+        <v>33369</v>
       </c>
       <c r="F83">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
-      </c>
-      <c r="E84" s="2">
-        <v>37005</v>
+        <v>222</v>
+      </c>
+      <c r="E84" s="3">
+        <v>34789</v>
       </c>
       <c r="F84">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="2">
-        <v>38231</v>
+        <v>222</v>
+      </c>
+      <c r="E85" s="3">
+        <v>38588</v>
       </c>
       <c r="F85">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
-      </c>
-      <c r="E86" s="2">
-        <v>37506</v>
+        <v>222</v>
+      </c>
+      <c r="E86" s="3">
+        <v>32982</v>
       </c>
       <c r="F86">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="2">
-        <v>33420</v>
+        <v>222</v>
+      </c>
+      <c r="E87" s="3">
+        <v>18372</v>
       </c>
       <c r="F87">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
-      </c>
-      <c r="E88" s="2">
-        <v>26020</v>
+        <v>222</v>
+      </c>
+      <c r="E88" s="3">
+        <v>36047</v>
       </c>
       <c r="F88">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="2">
-        <v>32326</v>
+        <v>222</v>
+      </c>
+      <c r="E89" s="3">
+        <v>36950</v>
       </c>
       <c r="F89">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="2">
-        <v>25989</v>
+        <v>222</v>
+      </c>
+      <c r="E90" s="3">
+        <v>37358</v>
       </c>
       <c r="F90">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
-      </c>
-      <c r="E91" s="2">
-        <v>39188</v>
+        <v>222</v>
+      </c>
+      <c r="E91" s="3">
+        <v>38308</v>
       </c>
       <c r="F91">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
-      </c>
-      <c r="E92" s="2">
-        <v>38854</v>
+        <v>222</v>
+      </c>
+      <c r="E92" s="3">
+        <v>26808</v>
       </c>
       <c r="F92">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
-      </c>
-      <c r="E93" s="2">
-        <v>38111</v>
+        <v>222</v>
+      </c>
+      <c r="E93" s="3">
+        <v>37005</v>
       </c>
       <c r="F93">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
-      </c>
-      <c r="E94" s="2">
-        <v>34040</v>
+        <v>222</v>
+      </c>
+      <c r="E94" s="3">
+        <v>38814</v>
       </c>
       <c r="F94">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="2">
-        <v>34537</v>
+        <v>222</v>
+      </c>
+      <c r="E95" s="3">
+        <v>38231</v>
       </c>
       <c r="F95">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
-      </c>
-      <c r="E96" s="2">
-        <v>36821</v>
+        <v>222</v>
+      </c>
+      <c r="E96" s="3">
+        <v>35856</v>
       </c>
       <c r="F96">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
-      </c>
-      <c r="E97" s="2">
-        <v>36782</v>
+        <v>222</v>
+      </c>
+      <c r="E97" s="3">
+        <v>37941</v>
       </c>
       <c r="F97">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
-      </c>
-      <c r="E98" s="2">
-        <v>32319</v>
+        <v>222</v>
+      </c>
+      <c r="E98" s="3">
+        <v>37506</v>
       </c>
       <c r="F98">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D99" t="s">
-        <v>197</v>
-      </c>
-      <c r="E99" s="2">
-        <v>38054</v>
+        <v>222</v>
+      </c>
+      <c r="E99" s="3">
+        <v>33420</v>
       </c>
       <c r="F99">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100" s="2">
-        <v>33430</v>
+        <v>222</v>
+      </c>
+      <c r="E100" s="3">
+        <v>26020</v>
       </c>
       <c r="F100">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
-      </c>
-      <c r="E101" s="2">
-        <v>38452</v>
+        <v>222</v>
+      </c>
+      <c r="E101" s="3">
+        <v>32326</v>
       </c>
       <c r="F101">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
-      </c>
-      <c r="E102" s="2">
-        <v>27520</v>
+        <v>222</v>
+      </c>
+      <c r="E102" s="3">
+        <v>38882</v>
       </c>
       <c r="F102">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D103" t="s">
-        <v>197</v>
-      </c>
-      <c r="E103" s="2">
-        <v>37969</v>
+        <v>222</v>
+      </c>
+      <c r="E103" s="3">
+        <v>25989</v>
       </c>
       <c r="F103">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D104" t="s">
-        <v>197</v>
-      </c>
-      <c r="E104" s="2">
-        <v>35324</v>
+        <v>222</v>
+      </c>
+      <c r="E104" s="3">
+        <v>39188</v>
       </c>
       <c r="F104">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
-      </c>
-      <c r="E105" s="2">
-        <v>30288</v>
+        <v>222</v>
+      </c>
+      <c r="E105" s="3">
+        <v>38854</v>
       </c>
       <c r="F105">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D106" t="s">
-        <v>197</v>
-      </c>
-      <c r="E106" s="2">
-        <v>36061</v>
+        <v>222</v>
+      </c>
+      <c r="E106" s="3">
+        <v>38111</v>
       </c>
       <c r="F106">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D107" t="s">
-        <v>197</v>
-      </c>
-      <c r="E107" s="2">
-        <v>37101</v>
+        <v>222</v>
+      </c>
+      <c r="E107" s="3">
+        <v>32574</v>
       </c>
       <c r="F107">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D108" t="s">
-        <v>197</v>
-      </c>
-      <c r="E108" s="2">
-        <v>37101</v>
+        <v>222</v>
+      </c>
+      <c r="E108" s="3">
+        <v>37778</v>
       </c>
       <c r="F108">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D109" t="s">
-        <v>197</v>
-      </c>
-      <c r="E109" s="2">
-        <v>38386</v>
+        <v>222</v>
+      </c>
+      <c r="E109" s="3">
+        <v>34040</v>
       </c>
       <c r="F109">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D110" t="s">
-        <v>197</v>
-      </c>
-      <c r="E110" s="2">
-        <v>38837</v>
+        <v>222</v>
+      </c>
+      <c r="E110" s="3">
+        <v>34537</v>
       </c>
       <c r="F110">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D111" t="s">
-        <v>197</v>
-      </c>
-      <c r="E111" s="2">
-        <v>39322</v>
+        <v>222</v>
+      </c>
+      <c r="E111" s="3">
+        <v>36821</v>
       </c>
       <c r="F111">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3203,859 +3344,1281 @@
         <v>180</v>
       </c>
       <c r="C112" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D112" t="s">
-        <v>197</v>
-      </c>
-      <c r="E112" s="2">
-        <v>30812</v>
+        <v>222</v>
+      </c>
+      <c r="E112" s="3">
+        <v>36381</v>
       </c>
       <c r="F112">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D113" t="s">
-        <v>197</v>
-      </c>
-      <c r="E113" s="2">
-        <v>37028</v>
+        <v>222</v>
+      </c>
+      <c r="E113" s="3">
+        <v>36782</v>
       </c>
       <c r="F113">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
-      </c>
-      <c r="E114" s="2">
-        <v>37035</v>
+        <v>222</v>
+      </c>
+      <c r="E114" s="3">
+        <v>32319</v>
       </c>
       <c r="F114">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
-      </c>
-      <c r="E115" s="2">
-        <v>27949</v>
+        <v>222</v>
+      </c>
+      <c r="E115" s="3">
+        <v>38054</v>
       </c>
       <c r="F115">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D116" t="s">
-        <v>197</v>
-      </c>
-      <c r="E116" s="2">
-        <v>36219</v>
+        <v>222</v>
+      </c>
+      <c r="E116" s="3">
+        <v>33430</v>
       </c>
       <c r="F116">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D117" t="s">
-        <v>197</v>
-      </c>
-      <c r="E117" s="2">
-        <v>37202</v>
+        <v>222</v>
+      </c>
+      <c r="E117" s="3">
+        <v>38452</v>
       </c>
       <c r="F117">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D118" t="s">
-        <v>197</v>
-      </c>
-      <c r="E118" s="2">
-        <v>34062</v>
+        <v>222</v>
+      </c>
+      <c r="E118" s="3">
+        <v>27520</v>
       </c>
       <c r="F118">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D119" t="s">
-        <v>197</v>
-      </c>
-      <c r="E119" s="2">
-        <v>38211</v>
+        <v>222</v>
+      </c>
+      <c r="E119" s="3">
+        <v>37969</v>
       </c>
       <c r="F119">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D120" t="s">
-        <v>197</v>
-      </c>
-      <c r="E120" s="2">
-        <v>35962</v>
+        <v>222</v>
+      </c>
+      <c r="E120" s="3">
+        <v>35324</v>
       </c>
       <c r="F120">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D121" t="s">
-        <v>197</v>
-      </c>
-      <c r="E121" s="2">
-        <v>27467</v>
+        <v>222</v>
+      </c>
+      <c r="E121" s="3">
+        <v>38353</v>
       </c>
       <c r="F121">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C122" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D122" t="s">
-        <v>197</v>
-      </c>
-      <c r="E122" s="2">
-        <v>24418</v>
+        <v>222</v>
+      </c>
+      <c r="E122" s="3">
+        <v>30288</v>
       </c>
       <c r="F122">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D123" t="s">
-        <v>197</v>
-      </c>
-      <c r="E123" s="2">
-        <v>38338</v>
+        <v>222</v>
+      </c>
+      <c r="E123" s="3">
+        <v>36061</v>
       </c>
       <c r="F123">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D124" t="s">
-        <v>197</v>
-      </c>
-      <c r="E124" s="2">
-        <v>37697</v>
+        <v>222</v>
+      </c>
+      <c r="E124" s="3">
+        <v>37101</v>
       </c>
       <c r="F124">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D125" t="s">
-        <v>197</v>
-      </c>
-      <c r="E125" s="2">
-        <v>36128</v>
+        <v>222</v>
+      </c>
+      <c r="E125" s="3">
+        <v>37101</v>
       </c>
       <c r="F125">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
-      </c>
-      <c r="E126" s="2">
-        <v>24724</v>
+        <v>222</v>
+      </c>
+      <c r="E126" s="3">
+        <v>38386</v>
       </c>
       <c r="F126">
-        <v>1967</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C127" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D127" t="s">
-        <v>197</v>
-      </c>
-      <c r="E127" s="2">
-        <v>33604</v>
+        <v>222</v>
+      </c>
+      <c r="E127" s="3">
+        <v>38837</v>
       </c>
       <c r="F127">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D128" t="s">
-        <v>197</v>
-      </c>
-      <c r="E128" s="2">
-        <v>37151</v>
+        <v>222</v>
+      </c>
+      <c r="E128" s="3">
+        <v>39322</v>
       </c>
       <c r="F128">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="D129" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="2">
-        <v>36830</v>
+        <v>222</v>
+      </c>
+      <c r="E129" s="3">
+        <v>30812</v>
       </c>
       <c r="F129">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D130" t="s">
-        <v>197</v>
-      </c>
-      <c r="E130" s="2">
-        <v>37484</v>
+        <v>222</v>
+      </c>
+      <c r="E130" s="3">
+        <v>37028</v>
       </c>
       <c r="F130">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="C131" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D131" t="s">
-        <v>197</v>
-      </c>
-      <c r="E131" s="2">
-        <v>28651</v>
+        <v>222</v>
+      </c>
+      <c r="E131" s="3">
+        <v>38540</v>
       </c>
       <c r="F131">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D132" t="s">
-        <v>197</v>
-      </c>
-      <c r="E132" s="2">
-        <v>38141</v>
+        <v>222</v>
+      </c>
+      <c r="E132" s="3">
+        <v>37035</v>
       </c>
       <c r="F132">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D133" t="s">
-        <v>197</v>
-      </c>
-      <c r="E133" s="2">
-        <v>34058</v>
+        <v>222</v>
+      </c>
+      <c r="E133" s="3">
+        <v>27949</v>
       </c>
       <c r="F133">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
-      </c>
-      <c r="E134" s="2">
-        <v>38686</v>
+        <v>222</v>
+      </c>
+      <c r="E134" s="3">
+        <v>38936</v>
       </c>
       <c r="F134">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D135" t="s">
-        <v>197</v>
-      </c>
-      <c r="E135" s="2">
-        <v>30501</v>
+        <v>222</v>
+      </c>
+      <c r="E135" s="3">
+        <v>36219</v>
       </c>
       <c r="F135">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D136" t="s">
-        <v>197</v>
-      </c>
-      <c r="E136" s="2">
-        <v>22885</v>
+        <v>222</v>
+      </c>
+      <c r="E136" s="3">
+        <v>37202</v>
       </c>
       <c r="F136">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D137" t="s">
-        <v>197</v>
-      </c>
-      <c r="E137" s="2">
-        <v>26864</v>
+        <v>222</v>
+      </c>
+      <c r="E137" s="3">
+        <v>34062</v>
       </c>
       <c r="F137">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D138" t="s">
-        <v>197</v>
-      </c>
-      <c r="E138" s="2">
-        <v>37520</v>
+        <v>222</v>
+      </c>
+      <c r="E138" s="3">
+        <v>38211</v>
       </c>
       <c r="F138">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D139" t="s">
-        <v>197</v>
-      </c>
-      <c r="E139" s="2">
-        <v>38513</v>
+        <v>222</v>
+      </c>
+      <c r="E139" s="3">
+        <v>35962</v>
       </c>
       <c r="F139">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D140" t="s">
-        <v>197</v>
-      </c>
-      <c r="E140" s="2">
-        <v>36875</v>
+        <v>222</v>
+      </c>
+      <c r="E140" s="3">
+        <v>27467</v>
       </c>
       <c r="F140">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D141" t="s">
-        <v>197</v>
-      </c>
-      <c r="E141" s="2">
-        <v>37948</v>
+        <v>222</v>
+      </c>
+      <c r="E141" s="3">
+        <v>24418</v>
       </c>
       <c r="F141">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
-      </c>
-      <c r="E142" s="2">
-        <v>22510</v>
+        <v>222</v>
+      </c>
+      <c r="E142" s="3">
+        <v>38338</v>
       </c>
       <c r="F142">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D143" t="s">
-        <v>197</v>
-      </c>
-      <c r="E143" s="2">
-        <v>35388</v>
+        <v>222</v>
+      </c>
+      <c r="E143" s="3">
+        <v>37697</v>
       </c>
       <c r="F143">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D144" t="s">
-        <v>197</v>
-      </c>
-      <c r="E144" s="2">
-        <v>27167</v>
+        <v>222</v>
+      </c>
+      <c r="E144" s="3">
+        <v>21146</v>
       </c>
       <c r="F144">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D145" t="s">
-        <v>197</v>
-      </c>
-      <c r="E145" s="2">
-        <v>39321</v>
+        <v>222</v>
+      </c>
+      <c r="E145" s="3">
+        <v>36896</v>
       </c>
       <c r="F145">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
-      </c>
-      <c r="E146" s="2">
-        <v>39731</v>
+        <v>222</v>
+      </c>
+      <c r="E146" s="3">
+        <v>36128</v>
       </c>
       <c r="F146">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D147" t="s">
-        <v>197</v>
-      </c>
-      <c r="E147" s="2">
-        <v>34124</v>
+        <v>222</v>
+      </c>
+      <c r="E147" s="3">
+        <v>24724</v>
       </c>
       <c r="F147">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D148" t="s">
-        <v>197</v>
-      </c>
-      <c r="E148" s="2">
-        <v>30573</v>
+        <v>222</v>
+      </c>
+      <c r="E148" s="3">
+        <v>33604</v>
       </c>
       <c r="F148">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D149" t="s">
-        <v>197</v>
-      </c>
-      <c r="E149" s="2">
-        <v>33595</v>
+        <v>222</v>
+      </c>
+      <c r="E149" s="3">
+        <v>37151</v>
       </c>
       <c r="F149">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D150" t="s">
-        <v>197</v>
-      </c>
-      <c r="E150" s="2">
-        <v>25773</v>
+        <v>222</v>
+      </c>
+      <c r="E150" s="3">
+        <v>36830</v>
       </c>
       <c r="F150">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D151" t="s">
-        <v>197</v>
-      </c>
-      <c r="E151" s="2">
-        <v>35419</v>
+        <v>222</v>
+      </c>
+      <c r="E151" s="3">
+        <v>37484</v>
       </c>
       <c r="F151">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
-        <v>197</v>
-      </c>
-      <c r="E152" s="2">
-        <v>26219</v>
+        <v>222</v>
+      </c>
+      <c r="E152" s="3">
+        <v>28651</v>
       </c>
       <c r="F152">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C153" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="D153" t="s">
-        <v>197</v>
-      </c>
-      <c r="E153" s="2">
-        <v>34163</v>
+        <v>222</v>
+      </c>
+      <c r="E153" s="3">
+        <v>38141</v>
       </c>
       <c r="F153">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
       <c r="B154" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" t="s">
+        <v>216</v>
+      </c>
+      <c r="D154" t="s">
+        <v>222</v>
+      </c>
+      <c r="E154" s="3">
+        <v>34058</v>
+      </c>
+      <c r="F154">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>203</v>
+      </c>
+      <c r="C155" t="s">
+        <v>216</v>
+      </c>
+      <c r="D155" t="s">
+        <v>222</v>
+      </c>
+      <c r="E155" s="3">
+        <v>38686</v>
+      </c>
+      <c r="F155">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" t="s">
+        <v>187</v>
+      </c>
+      <c r="C156" t="s">
+        <v>216</v>
+      </c>
+      <c r="D156" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" s="3">
+        <v>30501</v>
+      </c>
+      <c r="F156">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" t="s">
+        <v>216</v>
+      </c>
+      <c r="D157" t="s">
+        <v>222</v>
+      </c>
+      <c r="E157" s="3">
+        <v>22885</v>
+      </c>
+      <c r="F157">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158" t="s">
+        <v>215</v>
+      </c>
+      <c r="C158" t="s">
+        <v>216</v>
+      </c>
+      <c r="D158" t="s">
+        <v>222</v>
+      </c>
+      <c r="E158" s="3">
+        <v>26864</v>
+      </c>
+      <c r="F158">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" t="s">
+        <v>222</v>
+      </c>
+      <c r="E159" s="3">
+        <v>37520</v>
+      </c>
+      <c r="F159">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" t="s">
+        <v>216</v>
+      </c>
+      <c r="D160" t="s">
+        <v>222</v>
+      </c>
+      <c r="E160" s="3">
+        <v>38513</v>
+      </c>
+      <c r="F160">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" t="s">
+        <v>216</v>
+      </c>
+      <c r="D161" t="s">
+        <v>222</v>
+      </c>
+      <c r="E161" s="3">
+        <v>36875</v>
+      </c>
+      <c r="F161">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" t="s">
+        <v>222</v>
+      </c>
+      <c r="E162" s="3">
+        <v>37948</v>
+      </c>
+      <c r="F162">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" t="s">
+        <v>210</v>
+      </c>
+      <c r="C163" t="s">
+        <v>216</v>
+      </c>
+      <c r="D163" t="s">
+        <v>222</v>
+      </c>
+      <c r="E163" s="3">
+        <v>22510</v>
+      </c>
+      <c r="F163">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>168</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B164" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" t="s">
+        <v>216</v>
+      </c>
+      <c r="D164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" s="3">
+        <v>35388</v>
+      </c>
+      <c r="F164">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+      <c r="C165" t="s">
+        <v>216</v>
+      </c>
+      <c r="D165" t="s">
+        <v>222</v>
+      </c>
+      <c r="E165" s="3">
+        <v>27167</v>
+      </c>
+      <c r="F165">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" t="s">
+        <v>187</v>
+      </c>
+      <c r="C166" t="s">
+        <v>216</v>
+      </c>
+      <c r="D166" t="s">
+        <v>222</v>
+      </c>
+      <c r="E166" s="3">
+        <v>39321</v>
+      </c>
+      <c r="F166">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" t="s">
+        <v>216</v>
+      </c>
+      <c r="D167" t="s">
+        <v>222</v>
+      </c>
+      <c r="E167" s="3">
+        <v>39731</v>
+      </c>
+      <c r="F167">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" t="s">
+        <v>216</v>
+      </c>
+      <c r="D168" t="s">
+        <v>222</v>
+      </c>
+      <c r="E168" s="3">
+        <v>34124</v>
+      </c>
+      <c r="F168">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" t="s">
+        <v>216</v>
+      </c>
+      <c r="D169" t="s">
+        <v>222</v>
+      </c>
+      <c r="E169" s="3">
+        <v>30573</v>
+      </c>
+      <c r="F169">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
+        <v>209</v>
+      </c>
+      <c r="C170" t="s">
+        <v>216</v>
+      </c>
+      <c r="D170" t="s">
+        <v>222</v>
+      </c>
+      <c r="E170" s="3">
+        <v>33595</v>
+      </c>
+      <c r="F170">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" t="s">
+        <v>216</v>
+      </c>
+      <c r="D171" t="s">
+        <v>222</v>
+      </c>
+      <c r="E171" s="3">
+        <v>25773</v>
+      </c>
+      <c r="F171">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" t="s">
+        <v>216</v>
+      </c>
+      <c r="D172" t="s">
+        <v>222</v>
+      </c>
+      <c r="E172" s="3">
+        <v>35419</v>
+      </c>
+      <c r="F172">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
         <v>191</v>
       </c>
-      <c r="D154" t="s">
-        <v>197</v>
-      </c>
-      <c r="E154" s="2">
+      <c r="C173" t="s">
+        <v>216</v>
+      </c>
+      <c r="D173" t="s">
+        <v>222</v>
+      </c>
+      <c r="E173" s="3">
+        <v>26219</v>
+      </c>
+      <c r="F173">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" t="s">
+        <v>199</v>
+      </c>
+      <c r="C174" t="s">
+        <v>216</v>
+      </c>
+      <c r="D174" t="s">
+        <v>222</v>
+      </c>
+      <c r="E174" s="3">
+        <v>34163</v>
+      </c>
+      <c r="F174">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175" t="s">
+        <v>190</v>
+      </c>
+      <c r="C175" t="s">
+        <v>216</v>
+      </c>
+      <c r="D175" t="s">
+        <v>222</v>
+      </c>
+      <c r="E175" s="3">
         <v>27427</v>
       </c>
-      <c r="F154">
+      <c r="F175">
         <v>1975</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1_zavodnici.xlsx
+++ b/1_zavodnici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2994FE-12FD-41EC-91BD-478F8FAC442E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D093D558-DD5B-4DA1-A4AB-4D99DE9657C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-288" yWindow="-14208" windowWidth="19668" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12972" yWindow="-15960" windowWidth="15564" windowHeight="14724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="249">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>BEDNÁR Kryštof</t>
   </si>
   <si>
+    <t>BELL Tristen</t>
+  </si>
+  <si>
     <t>BERAN Jiří</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>BĚLOHOUBEK Matouš</t>
   </si>
   <si>
+    <t>CHLEBÍK Michal</t>
+  </si>
+  <si>
     <t>CHOUN Karím</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>D'AMICO Kristian</t>
   </si>
   <si>
+    <t>DITRICH Jan</t>
+  </si>
+  <si>
     <t>DOLEJŠÍ Marek</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>HORBACHUK Yuriy</t>
   </si>
   <si>
+    <t>HOUŠKA Filip</t>
+  </si>
+  <si>
     <t>HOYER Martin</t>
   </si>
   <si>
@@ -223,12 +235,18 @@
     <t>JURKA Tomáš</t>
   </si>
   <si>
+    <t>JURÁŇ Jiří</t>
+  </si>
+  <si>
     <t>JÍLEK Jaroslav</t>
   </si>
   <si>
     <t>KAIL Daniel</t>
   </si>
   <si>
+    <t>KALINA Jiří</t>
+  </si>
+  <si>
     <t>KALUS Jonáš</t>
   </si>
   <si>
@@ -271,6 +289,9 @@
     <t>KOVACKI Milos</t>
   </si>
   <si>
+    <t>KOVAŘÍK Tomáš</t>
+  </si>
+  <si>
     <t>KRACMAN Tomáš</t>
   </si>
   <si>
@@ -298,12 +319,18 @@
     <t>KŘÍŽ Petr</t>
   </si>
   <si>
+    <t>LEVY Josef</t>
+  </si>
+  <si>
     <t>LIBICH Vladimír</t>
   </si>
   <si>
     <t>LOKAJ Václav</t>
   </si>
   <si>
+    <t>LORENC Adam</t>
+  </si>
+  <si>
     <t>LUCOVIČ Matěj</t>
   </si>
   <si>
@@ -382,12 +409,21 @@
     <t>PITRA Pavel</t>
   </si>
   <si>
+    <t>PLÁTEK Daniel</t>
+  </si>
+  <si>
     <t>POHNAN Kryštof</t>
   </si>
   <si>
+    <t>POKORNÝ Jan</t>
+  </si>
+  <si>
     <t>POKORNÝ Richard</t>
   </si>
   <si>
+    <t>POŠTA Marek</t>
+  </si>
+  <si>
     <t>PROCHÁZKA Ondřej</t>
   </si>
   <si>
@@ -397,6 +433,9 @@
     <t>PUSTĚJOVSKÝ Vladimír</t>
   </si>
   <si>
+    <t>PÁTEK Ondřej</t>
+  </si>
+  <si>
     <t>RUBEŠ Martin</t>
   </si>
   <si>
@@ -463,6 +502,9 @@
     <t>STUDENÝ Václav</t>
   </si>
   <si>
+    <t>STYMNE Jakob</t>
+  </si>
+  <si>
     <t>SURMA Štěpán</t>
   </si>
   <si>
@@ -496,6 +538,12 @@
     <t>TOMAN Štěpán</t>
   </si>
   <si>
+    <t>TOMÁŠEK Vlastimil</t>
+  </si>
+  <si>
+    <t>TREFILÍK Jakub</t>
+  </si>
+  <si>
     <t>TÁBORSKÝ Lukáš</t>
   </si>
   <si>
@@ -520,12 +568,18 @@
     <t>VLACH Šimon</t>
   </si>
   <si>
+    <t>VOKÁČ František</t>
+  </si>
+  <si>
     <t>VOLÁK Samuel</t>
   </si>
   <si>
     <t>VONDRA Matouš</t>
   </si>
   <si>
+    <t>VÁVRA Antonín</t>
+  </si>
+  <si>
     <t>VÁVRA Miroslav</t>
   </si>
   <si>
@@ -544,13 +598,16 @@
     <t>ZELENKA Jiří</t>
   </si>
   <si>
+    <t>ZHÁŇAL Petr</t>
+  </si>
+  <si>
     <t>ČAPEK Martin</t>
   </si>
   <si>
     <t>ČUPR Michal</t>
   </si>
   <si>
-    <t>ŘEZANKA_ST. Ota</t>
+    <t>ŘEZANKA Ota</t>
   </si>
   <si>
     <t>ŠILHÁN Jindřich</t>
@@ -559,12 +616,18 @@
     <t>ŠPATENKA Martin</t>
   </si>
   <si>
+    <t>ŠTULÍŘ Pavel</t>
+  </si>
+  <si>
     <t>ŠTVERÁK Martin</t>
   </si>
   <si>
     <t>ŠVANDA Pavel</t>
   </si>
   <si>
+    <t>ŠŤASTNÝ Kristián</t>
+  </si>
+  <si>
     <t>VUT BRNO</t>
   </si>
   <si>
@@ -601,13 +664,19 @@
     <t>DUKLA OLOMOUC</t>
   </si>
   <si>
-    <t>SP.Š. TÁBOR</t>
+    <t>BŠK MARTINENGO</t>
+  </si>
+  <si>
+    <t>SPORTOVNÍ ŠERM TÁBOR</t>
   </si>
   <si>
     <t>1.FC BELA POD BEZ</t>
   </si>
   <si>
-    <t>SPORŠZZ</t>
+    <t>SS UH.HRADISTE</t>
+  </si>
+  <si>
+    <t>SPORTOVNÍ ŠERM ZLÍN</t>
   </si>
   <si>
     <t>VSK HUMANITA</t>
@@ -622,7 +691,7 @@
     <t>ŠERM MASTERS</t>
   </si>
   <si>
-    <t>TJ SOKOL PISEK</t>
+    <t>TJ SOKOL PÍSEK</t>
   </si>
   <si>
     <t>TJ LOKO K.VARY</t>
@@ -631,22 +700,22 @@
     <t>TBILISI</t>
   </si>
   <si>
-    <t>SS UH.HRADISTE</t>
-  </si>
-  <si>
     <t>TJ LOKO PLZEN</t>
   </si>
   <si>
+    <t>SOKOL PLZEŇ</t>
+  </si>
+  <si>
     <t>AUT</t>
   </si>
   <si>
-    <t>S.BRNO I</t>
+    <t>SOKOL BRNO I</t>
   </si>
   <si>
     <t>OREL HR.KR.</t>
   </si>
   <si>
-    <t>SOKOL PLZEN</t>
+    <t>S.BRI</t>
   </si>
   <si>
     <t>POL</t>
@@ -664,6 +733,9 @@
     <t>AKADÉMIA ŠERMU BRATISLAVA</t>
   </si>
   <si>
+    <t>DIF STOCKHOLM</t>
+  </si>
+  <si>
     <t>LAŠSSKFZ</t>
   </si>
   <si>
@@ -673,6 +745,9 @@
     <t>SILNI BEOGRAD</t>
   </si>
   <si>
+    <t>BOHEP</t>
+  </si>
+  <si>
     <t>CZE</t>
   </si>
   <si>
@@ -686,6 +761,9 @@
   </si>
   <si>
     <t>GEO</t>
+  </si>
+  <si>
+    <t>SWE</t>
   </si>
   <si>
     <t>RUS</t>
@@ -758,13 +836,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,36 +1181,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1141,15 +1219,15 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="3">
+        <v>248</v>
+      </c>
+      <c r="E2" s="1">
         <v>34207</v>
       </c>
       <c r="F2">
@@ -1161,15 +1239,15 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="3">
+        <v>248</v>
+      </c>
+      <c r="E3" s="1">
         <v>39027</v>
       </c>
       <c r="F3">
@@ -1181,15 +1259,15 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" s="3">
+        <v>248</v>
+      </c>
+      <c r="E4" s="1">
         <v>26542</v>
       </c>
       <c r="F4">
@@ -1201,15 +1279,15 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E5" s="3">
+        <v>248</v>
+      </c>
+      <c r="E5" s="1">
         <v>39054</v>
       </c>
       <c r="F5">
@@ -1221,15 +1299,15 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="3">
+        <v>248</v>
+      </c>
+      <c r="E6" s="1">
         <v>35788</v>
       </c>
       <c r="F6">
@@ -1241,15 +1319,15 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="3">
+        <v>248</v>
+      </c>
+      <c r="E7" s="1">
         <v>28313</v>
       </c>
       <c r="F7">
@@ -1261,15 +1339,15 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="3">
+        <v>248</v>
+      </c>
+      <c r="E8" s="1">
         <v>37324</v>
       </c>
       <c r="F8">
@@ -1281,15 +1359,15 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="3">
+        <v>248</v>
+      </c>
+      <c r="E9" s="1">
         <v>36099</v>
       </c>
       <c r="F9">
@@ -1301,15 +1379,15 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E10" s="3">
+        <v>248</v>
+      </c>
+      <c r="E10" s="1">
         <v>37603</v>
       </c>
       <c r="F10">
@@ -1321,15 +1399,15 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E11" s="3">
+        <v>248</v>
+      </c>
+      <c r="E11" s="1">
         <v>35522</v>
       </c>
       <c r="F11">
@@ -1341,216 +1419,216 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="3">
-        <v>29969</v>
+        <v>248</v>
+      </c>
+      <c r="E12" s="1">
+        <v>37109</v>
       </c>
       <c r="F12">
-        <v>1982</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30021</v>
+        <v>248</v>
+      </c>
+      <c r="E13" s="1">
+        <v>37753</v>
       </c>
       <c r="F13">
-        <v>1982</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="3">
-        <v>34040</v>
+        <v>248</v>
+      </c>
+      <c r="E14" s="1">
+        <v>29969</v>
       </c>
       <c r="F14">
-        <v>1993</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="3">
-        <v>36970</v>
+        <v>248</v>
+      </c>
+      <c r="E15" s="1">
+        <v>34304</v>
       </c>
       <c r="F15">
-        <v>2001</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="3">
-        <v>35842</v>
+        <v>248</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30021</v>
       </c>
       <c r="F16">
-        <v>1998</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="3">
-        <v>35185</v>
+        <v>248</v>
+      </c>
+      <c r="E17" s="1">
+        <v>34040</v>
       </c>
       <c r="F17">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="3">
-        <v>38473</v>
+        <v>248</v>
+      </c>
+      <c r="E18" s="1">
+        <v>36970</v>
       </c>
       <c r="F18">
-        <v>2005</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="3">
-        <v>34304</v>
+        <v>248</v>
+      </c>
+      <c r="E19" s="1">
+        <v>39129</v>
       </c>
       <c r="F19">
-        <v>1993</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>222</v>
-      </c>
-      <c r="E20" s="3">
-        <v>39129</v>
+        <v>248</v>
+      </c>
+      <c r="E20" s="1">
+        <v>35842</v>
       </c>
       <c r="F20">
-        <v>2007</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="3">
-        <v>37753</v>
+        <v>248</v>
+      </c>
+      <c r="E21" s="1">
+        <v>35185</v>
       </c>
       <c r="F21">
-        <v>2003</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="3">
-        <v>38600</v>
+        <v>248</v>
+      </c>
+      <c r="E22" s="1">
+        <v>38473</v>
       </c>
       <c r="F22">
         <v>2005</v>
@@ -1558,18 +1636,18 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" s="3">
+        <v>248</v>
+      </c>
+      <c r="E23" s="1">
         <v>33038</v>
       </c>
       <c r="F23">
@@ -1578,18 +1656,18 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
-      </c>
-      <c r="E24" s="3">
+        <v>248</v>
+      </c>
+      <c r="E24" s="1">
         <v>30117</v>
       </c>
       <c r="F24">
@@ -1598,18 +1676,18 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C25" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" s="3">
+        <v>248</v>
+      </c>
+      <c r="E25" s="1">
         <v>37662</v>
       </c>
       <c r="F25">
@@ -1618,42 +1696,42 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E26" s="3">
-        <v>35542</v>
+        <v>248</v>
+      </c>
+      <c r="E26" s="1">
+        <v>30573</v>
       </c>
       <c r="F26">
-        <v>1997</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
-      </c>
-      <c r="E27" s="3">
-        <v>34315</v>
+        <v>248</v>
+      </c>
+      <c r="E27" s="1">
+        <v>33595</v>
       </c>
       <c r="F27">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1661,139 +1739,139 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="3">
-        <v>38161</v>
+        <v>248</v>
+      </c>
+      <c r="E28" s="1">
+        <v>35542</v>
       </c>
       <c r="F28">
-        <v>2004</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C29" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
-      </c>
-      <c r="E29" s="3">
-        <v>35582</v>
+        <v>248</v>
+      </c>
+      <c r="E29" s="1">
+        <v>37614</v>
       </c>
       <c r="F29">
-        <v>1997</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E30" s="3">
-        <v>34349</v>
+        <v>248</v>
+      </c>
+      <c r="E30" s="1">
+        <v>32654</v>
       </c>
       <c r="F30">
-        <v>1994</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="3">
-        <v>37614</v>
+        <v>248</v>
+      </c>
+      <c r="E31" s="1">
+        <v>34315</v>
       </c>
       <c r="F31">
-        <v>2002</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="3">
-        <v>36046</v>
+        <v>248</v>
+      </c>
+      <c r="E32" s="1">
+        <v>38161</v>
       </c>
       <c r="F32">
-        <v>1998</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" s="3">
-        <v>38019</v>
+        <v>248</v>
+      </c>
+      <c r="E33" s="1">
+        <v>35582</v>
       </c>
       <c r="F33">
-        <v>2004</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="3">
-        <v>37694</v>
+        <v>248</v>
+      </c>
+      <c r="E34" s="1">
+        <v>34349</v>
       </c>
       <c r="F34">
-        <v>2003</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1801,19 +1879,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" s="3">
-        <v>31413</v>
+        <v>248</v>
+      </c>
+      <c r="E35" s="1">
+        <v>36046</v>
       </c>
       <c r="F35">
-        <v>1986</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1821,59 +1899,59 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="3">
-        <v>38471</v>
+        <v>248</v>
+      </c>
+      <c r="E36" s="1">
+        <v>38019</v>
       </c>
       <c r="F36">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="3">
-        <v>28615</v>
+        <v>248</v>
+      </c>
+      <c r="E37" s="1">
+        <v>31413</v>
       </c>
       <c r="F37">
-        <v>1978</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="3">
-        <v>33791</v>
+        <v>248</v>
+      </c>
+      <c r="E38" s="1">
+        <v>37694</v>
       </c>
       <c r="F38">
-        <v>1992</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1881,19 +1959,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="3">
-        <v>36409</v>
+        <v>248</v>
+      </c>
+      <c r="E39" s="1">
+        <v>38471</v>
       </c>
       <c r="F39">
-        <v>1999</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,19 +1979,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="3">
-        <v>33562</v>
+        <v>248</v>
+      </c>
+      <c r="E40" s="1">
+        <v>28615</v>
       </c>
       <c r="F40">
-        <v>1991</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1921,16 +1999,16 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
-      </c>
-      <c r="E41" s="3">
-        <v>33673</v>
+        <v>248</v>
+      </c>
+      <c r="E41" s="1">
+        <v>33791</v>
       </c>
       <c r="F41">
         <v>1992</v>
@@ -1941,19 +2019,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D42" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="3">
-        <v>21027</v>
+        <v>248</v>
+      </c>
+      <c r="E42" s="1">
+        <v>36409</v>
       </c>
       <c r="F42">
-        <v>1957</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1961,19 +2039,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="D43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="3">
-        <v>32598</v>
+        <v>248</v>
+      </c>
+      <c r="E43" s="1">
+        <v>33562</v>
       </c>
       <c r="F43">
-        <v>1989</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1981,19 +2059,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="3">
-        <v>30503</v>
+        <v>248</v>
+      </c>
+      <c r="E44" s="1">
+        <v>33673</v>
       </c>
       <c r="F44">
-        <v>1983</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2001,19 +2079,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="3">
-        <v>26426</v>
+        <v>248</v>
+      </c>
+      <c r="E45" s="1">
+        <v>21027</v>
       </c>
       <c r="F45">
-        <v>1972</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2021,19 +2099,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="3">
-        <v>24801</v>
+        <v>248</v>
+      </c>
+      <c r="E46" s="1">
+        <v>32598</v>
       </c>
       <c r="F46">
-        <v>1967</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2041,356 +2119,356 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>222</v>
-      </c>
-      <c r="E47" s="3">
-        <v>34518</v>
+        <v>248</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30503</v>
       </c>
       <c r="F47">
-        <v>1994</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="3">
-        <v>39432</v>
+        <v>248</v>
+      </c>
+      <c r="E48" s="1">
+        <v>36890</v>
       </c>
       <c r="F48">
-        <v>2007</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="3">
-        <v>36890</v>
+        <v>248</v>
+      </c>
+      <c r="E49" s="1">
+        <v>26426</v>
       </c>
       <c r="F49">
-        <v>2000</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="3">
-        <v>26996</v>
+        <v>248</v>
+      </c>
+      <c r="E50" s="1">
+        <v>37232</v>
       </c>
       <c r="F50">
-        <v>1973</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" s="3">
-        <v>37050</v>
+        <v>248</v>
+      </c>
+      <c r="E51" s="1">
+        <v>24801</v>
       </c>
       <c r="F51">
-        <v>2001</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="3">
-        <v>36441</v>
+        <v>248</v>
+      </c>
+      <c r="E52" s="1">
+        <v>34518</v>
       </c>
       <c r="F52">
-        <v>1999</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
-      </c>
-      <c r="E53" s="3">
-        <v>29600</v>
+        <v>248</v>
+      </c>
+      <c r="E53" s="1">
+        <v>39432</v>
       </c>
       <c r="F53">
-        <v>1981</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="3">
-        <v>37627</v>
+        <v>248</v>
+      </c>
+      <c r="E54" s="1">
+        <v>31778</v>
       </c>
       <c r="F54">
-        <v>2003</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
-      </c>
-      <c r="E55" s="3">
-        <v>36285</v>
+        <v>248</v>
+      </c>
+      <c r="E55" s="1">
+        <v>38600</v>
       </c>
       <c r="F55">
-        <v>1999</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
-      </c>
-      <c r="E56" s="3">
-        <v>30843</v>
+        <v>248</v>
+      </c>
+      <c r="E56" s="1">
+        <v>26996</v>
       </c>
       <c r="F56">
-        <v>1984</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" s="3">
-        <v>37523</v>
+        <v>248</v>
+      </c>
+      <c r="E57" s="1">
+        <v>37050</v>
       </c>
       <c r="F57">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" s="3">
-        <v>20718</v>
+        <v>248</v>
+      </c>
+      <c r="E58" s="1">
+        <v>36441</v>
       </c>
       <c r="F58">
-        <v>1956</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
-      </c>
-      <c r="E59" s="3">
-        <v>35277</v>
+        <v>248</v>
+      </c>
+      <c r="E59" s="1">
+        <v>29600</v>
       </c>
       <c r="F59">
-        <v>1996</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
-      </c>
-      <c r="E60" s="3">
-        <v>36324</v>
+        <v>248</v>
+      </c>
+      <c r="E60" s="1">
+        <v>37627</v>
       </c>
       <c r="F60">
-        <v>1999</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
-      </c>
-      <c r="E61" s="3">
-        <v>35431</v>
+        <v>248</v>
+      </c>
+      <c r="E61" s="1">
+        <v>36285</v>
       </c>
       <c r="F61">
-        <v>1997</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D62" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="3">
-        <v>25022</v>
+        <v>248</v>
+      </c>
+      <c r="E62" s="1">
+        <v>30843</v>
       </c>
       <c r="F62">
-        <v>1968</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="3">
-        <v>37822</v>
+        <v>248</v>
+      </c>
+      <c r="E63" s="1">
+        <v>25022</v>
       </c>
       <c r="F63">
-        <v>2003</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="3">
-        <v>37583</v>
+        <v>248</v>
+      </c>
+      <c r="E64" s="1">
+        <v>37523</v>
       </c>
       <c r="F64">
         <v>2002</v>
@@ -2398,819 +2476,819 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" s="3">
-        <v>27294</v>
+        <v>248</v>
+      </c>
+      <c r="E65" s="1">
+        <v>20718</v>
       </c>
       <c r="F65">
-        <v>1974</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="3">
-        <v>30784</v>
+        <v>248</v>
+      </c>
+      <c r="E66" s="1">
+        <v>35277</v>
       </c>
       <c r="F66">
-        <v>1984</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="3">
-        <v>29419</v>
+        <v>248</v>
+      </c>
+      <c r="E67" s="1">
+        <v>37878</v>
       </c>
       <c r="F67">
-        <v>1980</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D68" t="s">
-        <v>222</v>
-      </c>
-      <c r="E68" s="3">
-        <v>33596</v>
+        <v>248</v>
+      </c>
+      <c r="E68" s="1">
+        <v>36324</v>
       </c>
       <c r="F68">
-        <v>1991</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="3">
-        <v>37683</v>
+        <v>248</v>
+      </c>
+      <c r="E69" s="1">
+        <v>35450</v>
       </c>
       <c r="F69">
-        <v>2003</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D70" t="s">
-        <v>222</v>
-      </c>
-      <c r="E70" s="3">
-        <v>33414</v>
+        <v>248</v>
+      </c>
+      <c r="E70" s="1">
+        <v>37822</v>
       </c>
       <c r="F70">
-        <v>1991</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
-      </c>
-      <c r="E71" s="3">
-        <v>28784</v>
+        <v>248</v>
+      </c>
+      <c r="E71" s="1">
+        <v>23113</v>
       </c>
       <c r="F71">
-        <v>1978</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D72" t="s">
-        <v>222</v>
-      </c>
-      <c r="E72" s="3">
-        <v>38056</v>
+        <v>248</v>
+      </c>
+      <c r="E72" s="1">
+        <v>37583</v>
       </c>
       <c r="F72">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
-      </c>
-      <c r="E73" s="3">
-        <v>28701</v>
+        <v>248</v>
+      </c>
+      <c r="E73" s="1">
+        <v>30784</v>
       </c>
       <c r="F73">
-        <v>1978</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
-      </c>
-      <c r="E74" s="3">
-        <v>35423</v>
+        <v>248</v>
+      </c>
+      <c r="E74" s="1">
+        <v>27294</v>
       </c>
       <c r="F74">
-        <v>1996</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C75" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
-      </c>
-      <c r="E75" s="3">
-        <v>38299</v>
+        <v>248</v>
+      </c>
+      <c r="E75" s="1">
+        <v>29419</v>
       </c>
       <c r="F75">
-        <v>2004</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
-        <v>222</v>
-      </c>
-      <c r="E76" s="3">
-        <v>32227</v>
+        <v>248</v>
+      </c>
+      <c r="E76" s="1">
+        <v>33596</v>
       </c>
       <c r="F76">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>222</v>
-      </c>
-      <c r="E77" s="3">
-        <v>35065</v>
+        <v>248</v>
+      </c>
+      <c r="E77" s="1">
+        <v>37683</v>
       </c>
       <c r="F77">
-        <v>1996</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
-      </c>
-      <c r="E78" s="3">
-        <v>38917</v>
+        <v>248</v>
+      </c>
+      <c r="E78" s="1">
+        <v>33414</v>
       </c>
       <c r="F78">
-        <v>2006</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D79" t="s">
-        <v>222</v>
-      </c>
-      <c r="E79" s="3">
-        <v>30053</v>
+        <v>248</v>
+      </c>
+      <c r="E79" s="1">
+        <v>28784</v>
       </c>
       <c r="F79">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" s="3">
-        <v>37115</v>
+        <v>248</v>
+      </c>
+      <c r="E80" s="1">
+        <v>38056</v>
       </c>
       <c r="F80">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
-      </c>
-      <c r="E81" s="3">
-        <v>38168</v>
+        <v>248</v>
+      </c>
+      <c r="E81" s="1">
+        <v>28701</v>
       </c>
       <c r="F81">
-        <v>2004</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D82" t="s">
-        <v>222</v>
-      </c>
-      <c r="E82" s="3">
-        <v>38752</v>
+        <v>248</v>
+      </c>
+      <c r="E82" s="1">
+        <v>35423</v>
       </c>
       <c r="F82">
-        <v>2006</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
-      </c>
-      <c r="E83" s="3">
-        <v>33369</v>
+        <v>248</v>
+      </c>
+      <c r="E83" s="1">
+        <v>38299</v>
       </c>
       <c r="F83">
-        <v>1991</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
-      </c>
-      <c r="E84" s="3">
-        <v>34789</v>
+        <v>248</v>
+      </c>
+      <c r="E84" s="1">
+        <v>32227</v>
       </c>
       <c r="F84">
-        <v>1995</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
-      </c>
-      <c r="E85" s="3">
-        <v>38588</v>
+        <v>248</v>
+      </c>
+      <c r="E85" s="1">
+        <v>35065</v>
       </c>
       <c r="F85">
-        <v>2005</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
-      </c>
-      <c r="E86" s="3">
-        <v>32982</v>
+        <v>248</v>
+      </c>
+      <c r="E86" s="1">
+        <v>31158</v>
       </c>
       <c r="F86">
-        <v>1990</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
-      </c>
-      <c r="E87" s="3">
-        <v>18372</v>
+        <v>248</v>
+      </c>
+      <c r="E87" s="1">
+        <v>38917</v>
       </c>
       <c r="F87">
-        <v>1950</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
-      </c>
-      <c r="E88" s="3">
-        <v>36047</v>
+        <v>248</v>
+      </c>
+      <c r="E88" s="1">
+        <v>30053</v>
       </c>
       <c r="F88">
-        <v>1998</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D89" t="s">
-        <v>222</v>
-      </c>
-      <c r="E89" s="3">
-        <v>36950</v>
+        <v>248</v>
+      </c>
+      <c r="E89" s="1">
+        <v>38168</v>
       </c>
       <c r="F89">
-        <v>2001</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>222</v>
-      </c>
-      <c r="E90" s="3">
-        <v>37358</v>
+        <v>248</v>
+      </c>
+      <c r="E90" s="1">
+        <v>37115</v>
       </c>
       <c r="F90">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D91" t="s">
-        <v>222</v>
-      </c>
-      <c r="E91" s="3">
-        <v>38308</v>
+        <v>248</v>
+      </c>
+      <c r="E91" s="1">
+        <v>32982</v>
       </c>
       <c r="F91">
-        <v>2004</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" s="3">
-        <v>26808</v>
+        <v>248</v>
+      </c>
+      <c r="E92" s="1">
+        <v>33369</v>
       </c>
       <c r="F92">
-        <v>1973</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D93" t="s">
-        <v>222</v>
-      </c>
-      <c r="E93" s="3">
-        <v>37005</v>
+        <v>248</v>
+      </c>
+      <c r="E93" s="1">
+        <v>38752</v>
       </c>
       <c r="F93">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D94" t="s">
-        <v>222</v>
-      </c>
-      <c r="E94" s="3">
-        <v>38814</v>
+        <v>248</v>
+      </c>
+      <c r="E94" s="1">
+        <v>34789</v>
       </c>
       <c r="F94">
-        <v>2006</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" s="3">
-        <v>38231</v>
+        <v>248</v>
+      </c>
+      <c r="E95" s="1">
+        <v>38588</v>
       </c>
       <c r="F95">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D96" t="s">
-        <v>222</v>
-      </c>
-      <c r="E96" s="3">
-        <v>35856</v>
+        <v>248</v>
+      </c>
+      <c r="E96" s="1">
+        <v>26808</v>
       </c>
       <c r="F96">
-        <v>1998</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D97" t="s">
-        <v>222</v>
-      </c>
-      <c r="E97" s="3">
-        <v>37941</v>
+        <v>248</v>
+      </c>
+      <c r="E97" s="1">
+        <v>36677</v>
       </c>
       <c r="F97">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
-      </c>
-      <c r="E98" s="3">
-        <v>37506</v>
+        <v>248</v>
+      </c>
+      <c r="E98" s="1">
+        <v>18372</v>
       </c>
       <c r="F98">
-        <v>2002</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D99" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" s="3">
-        <v>33420</v>
+        <v>248</v>
+      </c>
+      <c r="E99" s="1">
+        <v>36047</v>
       </c>
       <c r="F99">
-        <v>1991</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
-      </c>
-      <c r="E100" s="3">
-        <v>26020</v>
+        <v>248</v>
+      </c>
+      <c r="E100" s="1">
+        <v>30881</v>
       </c>
       <c r="F100">
-        <v>1971</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C101" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
-      </c>
-      <c r="E101" s="3">
-        <v>32326</v>
+        <v>248</v>
+      </c>
+      <c r="E101" s="1">
+        <v>36950</v>
       </c>
       <c r="F101">
-        <v>1988</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C102" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" s="3">
-        <v>38882</v>
+        <v>248</v>
+      </c>
+      <c r="E102" s="1">
+        <v>37358</v>
       </c>
       <c r="F102">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>222</v>
-      </c>
-      <c r="E103" s="3">
-        <v>25989</v>
+        <v>248</v>
+      </c>
+      <c r="E103" s="1">
+        <v>38308</v>
       </c>
       <c r="F103">
-        <v>1971</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D104" t="s">
-        <v>222</v>
-      </c>
-      <c r="E104" s="3">
-        <v>39188</v>
+        <v>248</v>
+      </c>
+      <c r="E104" s="1">
+        <v>37005</v>
       </c>
       <c r="F104">
-        <v>2007</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D105" t="s">
-        <v>222</v>
-      </c>
-      <c r="E105" s="3">
-        <v>38854</v>
+        <v>248</v>
+      </c>
+      <c r="E105" s="1">
+        <v>38814</v>
       </c>
       <c r="F105">
         <v>2006</v>
@@ -3218,279 +3296,279 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D106" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" s="3">
-        <v>38111</v>
+        <v>248</v>
+      </c>
+      <c r="E106" s="1">
+        <v>37506</v>
       </c>
       <c r="F106">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D107" t="s">
-        <v>222</v>
-      </c>
-      <c r="E107" s="3">
-        <v>32574</v>
+        <v>248</v>
+      </c>
+      <c r="E107" s="1">
+        <v>38231</v>
       </c>
       <c r="F107">
-        <v>1989</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D108" t="s">
-        <v>222</v>
-      </c>
-      <c r="E108" s="3">
-        <v>37778</v>
+        <v>248</v>
+      </c>
+      <c r="E108" s="1">
+        <v>35856</v>
       </c>
       <c r="F108">
-        <v>2003</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
-        <v>222</v>
-      </c>
-      <c r="E109" s="3">
-        <v>34040</v>
+        <v>248</v>
+      </c>
+      <c r="E109" s="1">
+        <v>37941</v>
       </c>
       <c r="F109">
-        <v>1993</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>222</v>
-      </c>
-      <c r="E110" s="3">
-        <v>34537</v>
+        <v>248</v>
+      </c>
+      <c r="E110" s="1">
+        <v>33420</v>
       </c>
       <c r="F110">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
-      </c>
-      <c r="E111" s="3">
-        <v>36821</v>
+        <v>248</v>
+      </c>
+      <c r="E111" s="1">
+        <v>26020</v>
       </c>
       <c r="F111">
-        <v>2000</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" s="3">
-        <v>36381</v>
+        <v>248</v>
+      </c>
+      <c r="E112" s="1">
+        <v>32326</v>
       </c>
       <c r="F112">
-        <v>1999</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
-      </c>
-      <c r="E113" s="3">
-        <v>36782</v>
+        <v>248</v>
+      </c>
+      <c r="E113" s="1">
+        <v>25989</v>
       </c>
       <c r="F113">
-        <v>2000</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
-      </c>
-      <c r="E114" s="3">
-        <v>32319</v>
+        <v>248</v>
+      </c>
+      <c r="E114" s="1">
+        <v>38882</v>
       </c>
       <c r="F114">
-        <v>1988</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C115" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D115" t="s">
-        <v>222</v>
-      </c>
-      <c r="E115" s="3">
-        <v>38054</v>
+        <v>248</v>
+      </c>
+      <c r="E115" s="1">
+        <v>32574</v>
       </c>
       <c r="F115">
-        <v>2004</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D116" t="s">
-        <v>222</v>
-      </c>
-      <c r="E116" s="3">
-        <v>33430</v>
+        <v>248</v>
+      </c>
+      <c r="E116" s="1">
+        <v>39188</v>
       </c>
       <c r="F116">
-        <v>1991</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D117" t="s">
-        <v>222</v>
-      </c>
-      <c r="E117" s="3">
-        <v>38452</v>
+        <v>248</v>
+      </c>
+      <c r="E117" s="1">
+        <v>38111</v>
       </c>
       <c r="F117">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D118" t="s">
-        <v>222</v>
-      </c>
-      <c r="E118" s="3">
-        <v>27520</v>
+        <v>248</v>
+      </c>
+      <c r="E118" s="1">
+        <v>38854</v>
       </c>
       <c r="F118">
-        <v>1975</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C119" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E119" s="3">
-        <v>37969</v>
+        <v>248</v>
+      </c>
+      <c r="E119" s="1">
+        <v>37778</v>
       </c>
       <c r="F119">
         <v>2003</v>
@@ -3498,399 +3576,399 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D120" t="s">
-        <v>222</v>
-      </c>
-      <c r="E120" s="3">
-        <v>35324</v>
+        <v>248</v>
+      </c>
+      <c r="E120" s="1">
+        <v>34040</v>
       </c>
       <c r="F120">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="D121" t="s">
-        <v>222</v>
-      </c>
-      <c r="E121" s="3">
-        <v>38353</v>
+        <v>248</v>
+      </c>
+      <c r="E121" s="1">
+        <v>34537</v>
       </c>
       <c r="F121">
-        <v>2005</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D122" t="s">
-        <v>222</v>
-      </c>
-      <c r="E122" s="3">
-        <v>30288</v>
+        <v>248</v>
+      </c>
+      <c r="E122" s="1">
+        <v>36821</v>
       </c>
       <c r="F122">
-        <v>1982</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
-      </c>
-      <c r="E123" s="3">
-        <v>36061</v>
+        <v>248</v>
+      </c>
+      <c r="E123" s="1">
+        <v>36161</v>
       </c>
       <c r="F123">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>222</v>
-      </c>
-      <c r="E124" s="3">
-        <v>37101</v>
+        <v>248</v>
+      </c>
+      <c r="E124" s="1">
+        <v>36381</v>
       </c>
       <c r="F124">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
-      </c>
-      <c r="E125" s="3">
-        <v>37101</v>
+        <v>248</v>
+      </c>
+      <c r="E125" s="1">
+        <v>36782</v>
       </c>
       <c r="F125">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D126" t="s">
-        <v>222</v>
-      </c>
-      <c r="E126" s="3">
-        <v>38386</v>
+        <v>248</v>
+      </c>
+      <c r="E126" s="1">
+        <v>32319</v>
       </c>
       <c r="F126">
-        <v>2005</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C127" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D127" t="s">
-        <v>222</v>
-      </c>
-      <c r="E127" s="3">
-        <v>38837</v>
+        <v>248</v>
+      </c>
+      <c r="E127" s="1">
+        <v>36349</v>
       </c>
       <c r="F127">
-        <v>2006</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C128" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D128" t="s">
-        <v>222</v>
-      </c>
-      <c r="E128" s="3">
-        <v>39322</v>
+        <v>248</v>
+      </c>
+      <c r="E128" s="1">
+        <v>38054</v>
       </c>
       <c r="F128">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D129" t="s">
-        <v>222</v>
-      </c>
-      <c r="E129" s="3">
-        <v>30812</v>
+        <v>248</v>
+      </c>
+      <c r="E129" s="1">
+        <v>38353</v>
       </c>
       <c r="F129">
-        <v>1984</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C130" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D130" t="s">
-        <v>222</v>
-      </c>
-      <c r="E130" s="3">
-        <v>37028</v>
+        <v>248</v>
+      </c>
+      <c r="E130" s="1">
+        <v>33430</v>
       </c>
       <c r="F130">
-        <v>2001</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C131" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D131" t="s">
-        <v>222</v>
-      </c>
-      <c r="E131" s="3">
-        <v>38540</v>
+        <v>248</v>
+      </c>
+      <c r="E131" s="1">
+        <v>31894</v>
       </c>
       <c r="F131">
-        <v>2005</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C132" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D132" t="s">
-        <v>222</v>
-      </c>
-      <c r="E132" s="3">
-        <v>37035</v>
+        <v>248</v>
+      </c>
+      <c r="E132" s="1">
+        <v>38452</v>
       </c>
       <c r="F132">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D133" t="s">
-        <v>222</v>
-      </c>
-      <c r="E133" s="3">
-        <v>27949</v>
+        <v>248</v>
+      </c>
+      <c r="E133" s="1">
+        <v>27520</v>
       </c>
       <c r="F133">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C134" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D134" t="s">
-        <v>222</v>
-      </c>
-      <c r="E134" s="3">
-        <v>38936</v>
+        <v>248</v>
+      </c>
+      <c r="E134" s="1">
+        <v>37969</v>
       </c>
       <c r="F134">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
-      </c>
-      <c r="E135" s="3">
-        <v>36219</v>
+        <v>248</v>
+      </c>
+      <c r="E135" s="1">
+        <v>35324</v>
       </c>
       <c r="F135">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D136" t="s">
-        <v>222</v>
-      </c>
-      <c r="E136" s="3">
-        <v>37202</v>
+        <v>248</v>
+      </c>
+      <c r="E136" s="1">
+        <v>38353</v>
       </c>
       <c r="F136">
-        <v>2001</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="D137" t="s">
-        <v>222</v>
-      </c>
-      <c r="E137" s="3">
-        <v>34062</v>
+        <v>248</v>
+      </c>
+      <c r="E137" s="1">
+        <v>25773</v>
       </c>
       <c r="F137">
-        <v>1993</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D138" t="s">
-        <v>222</v>
-      </c>
-      <c r="E138" s="3">
-        <v>38211</v>
+        <v>248</v>
+      </c>
+      <c r="E138" s="1">
+        <v>30288</v>
       </c>
       <c r="F138">
-        <v>2004</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C139" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="D139" t="s">
-        <v>222</v>
-      </c>
-      <c r="E139" s="3">
-        <v>35962</v>
+        <v>248</v>
+      </c>
+      <c r="E139" s="1">
+        <v>36061</v>
       </c>
       <c r="F139">
         <v>1998</v>
@@ -3898,726 +3976,1150 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C140" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
-      </c>
-      <c r="E140" s="3">
-        <v>27467</v>
+        <v>248</v>
+      </c>
+      <c r="E140" s="1">
+        <v>37101</v>
       </c>
       <c r="F140">
-        <v>1975</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D141" t="s">
-        <v>222</v>
-      </c>
-      <c r="E141" s="3">
-        <v>24418</v>
+        <v>248</v>
+      </c>
+      <c r="E141" s="1">
+        <v>37101</v>
       </c>
       <c r="F141">
-        <v>1966</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D142" t="s">
-        <v>222</v>
-      </c>
-      <c r="E142" s="3">
-        <v>38338</v>
+        <v>248</v>
+      </c>
+      <c r="E142" s="1">
+        <v>38837</v>
       </c>
       <c r="F142">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D143" t="s">
-        <v>222</v>
-      </c>
-      <c r="E143" s="3">
-        <v>37697</v>
+        <v>248</v>
+      </c>
+      <c r="E143" s="1">
+        <v>39322</v>
       </c>
       <c r="F143">
-        <v>2003</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D144" t="s">
-        <v>222</v>
-      </c>
-      <c r="E144" s="3">
-        <v>21146</v>
+        <v>248</v>
+      </c>
+      <c r="E144" s="1">
+        <v>38386</v>
       </c>
       <c r="F144">
-        <v>1957</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D145" t="s">
-        <v>222</v>
-      </c>
-      <c r="E145" s="3">
-        <v>36896</v>
+        <v>248</v>
+      </c>
+      <c r="E145" s="1">
+        <v>30812</v>
       </c>
       <c r="F145">
-        <v>2001</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="C146" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D146" t="s">
-        <v>222</v>
-      </c>
-      <c r="E146" s="3">
-        <v>36128</v>
+        <v>248</v>
+      </c>
+      <c r="E146" s="1">
+        <v>37035</v>
       </c>
       <c r="F146">
-        <v>1998</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D147" t="s">
-        <v>222</v>
-      </c>
-      <c r="E147" s="3">
-        <v>24724</v>
+        <v>248</v>
+      </c>
+      <c r="E147" s="1">
+        <v>37028</v>
       </c>
       <c r="F147">
-        <v>1967</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C148" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="D148" t="s">
-        <v>222</v>
-      </c>
-      <c r="E148" s="3">
-        <v>33604</v>
+        <v>248</v>
+      </c>
+      <c r="E148" s="1">
+        <v>38540</v>
       </c>
       <c r="F148">
-        <v>1992</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D149" t="s">
-        <v>222</v>
-      </c>
-      <c r="E149" s="3">
-        <v>37151</v>
+        <v>248</v>
+      </c>
+      <c r="E149" s="1">
+        <v>27949</v>
       </c>
       <c r="F149">
-        <v>2001</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D150" t="s">
-        <v>222</v>
-      </c>
-      <c r="E150" s="3">
-        <v>36830</v>
+        <v>248</v>
+      </c>
+      <c r="E150" s="1">
+        <v>38936</v>
       </c>
       <c r="F150">
-        <v>2000</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="C151" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D151" t="s">
-        <v>222</v>
-      </c>
-      <c r="E151" s="3">
-        <v>37484</v>
+        <v>248</v>
+      </c>
+      <c r="E151" s="1">
+        <v>36219</v>
       </c>
       <c r="F151">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="C152" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
-        <v>222</v>
-      </c>
-      <c r="E152" s="3">
-        <v>28651</v>
+        <v>248</v>
+      </c>
+      <c r="E152" s="1">
+        <v>37202</v>
       </c>
       <c r="F152">
-        <v>1978</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="C153" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D153" t="s">
-        <v>222</v>
-      </c>
-      <c r="E153" s="3">
-        <v>38141</v>
+        <v>248</v>
+      </c>
+      <c r="E153" s="1">
+        <v>34062</v>
       </c>
       <c r="F153">
-        <v>2004</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C154" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D154" t="s">
-        <v>222</v>
-      </c>
-      <c r="E154" s="3">
-        <v>34058</v>
+        <v>248</v>
+      </c>
+      <c r="E154" s="1">
+        <v>38211</v>
       </c>
       <c r="F154">
-        <v>1993</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>222</v>
-      </c>
-      <c r="E155" s="3">
-        <v>38686</v>
+        <v>248</v>
+      </c>
+      <c r="E155" s="1">
+        <v>35962</v>
       </c>
       <c r="F155">
-        <v>2005</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C156" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D156" t="s">
-        <v>222</v>
-      </c>
-      <c r="E156" s="3">
-        <v>30501</v>
+        <v>248</v>
+      </c>
+      <c r="E156" s="1">
+        <v>27467</v>
       </c>
       <c r="F156">
-        <v>1983</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C157" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D157" t="s">
-        <v>222</v>
-      </c>
-      <c r="E157" s="3">
-        <v>22885</v>
+        <v>248</v>
+      </c>
+      <c r="E157" s="1">
+        <v>24418</v>
       </c>
       <c r="F157">
-        <v>1962</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C158" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="D158" t="s">
-        <v>222</v>
-      </c>
-      <c r="E158" s="3">
-        <v>26864</v>
+        <v>248</v>
+      </c>
+      <c r="E158" s="1">
+        <v>35065</v>
       </c>
       <c r="F158">
-        <v>1973</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="C159" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D159" t="s">
-        <v>222</v>
-      </c>
-      <c r="E159" s="3">
-        <v>37520</v>
+        <v>248</v>
+      </c>
+      <c r="E159" s="1">
+        <v>38338</v>
       </c>
       <c r="F159">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C160" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D160" t="s">
-        <v>222</v>
-      </c>
-      <c r="E160" s="3">
-        <v>38513</v>
+        <v>248</v>
+      </c>
+      <c r="E160" s="1">
+        <v>37697</v>
       </c>
       <c r="F160">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C161" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D161" t="s">
-        <v>222</v>
-      </c>
-      <c r="E161" s="3">
-        <v>36875</v>
+        <v>248</v>
+      </c>
+      <c r="E161" s="1">
+        <v>21146</v>
       </c>
       <c r="F161">
-        <v>2000</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C162" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D162" t="s">
-        <v>222</v>
-      </c>
-      <c r="E162" s="3">
-        <v>37948</v>
+        <v>248</v>
+      </c>
+      <c r="E162" s="1">
+        <v>36896</v>
       </c>
       <c r="F162">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C163" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D163" t="s">
-        <v>222</v>
-      </c>
-      <c r="E163" s="3">
-        <v>22510</v>
+        <v>248</v>
+      </c>
+      <c r="E163" s="1">
+        <v>36128</v>
       </c>
       <c r="F163">
-        <v>1961</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="C164" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D164" t="s">
-        <v>222</v>
-      </c>
-      <c r="E164" s="3">
-        <v>35388</v>
+        <v>248</v>
+      </c>
+      <c r="E164" s="1">
+        <v>24724</v>
       </c>
       <c r="F164">
-        <v>1996</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B165" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C165" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D165" t="s">
-        <v>222</v>
-      </c>
-      <c r="E165" s="3">
-        <v>27167</v>
+        <v>248</v>
+      </c>
+      <c r="E165" s="1">
+        <v>37151</v>
       </c>
       <c r="F165">
-        <v>1974</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="C166" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="D166" t="s">
-        <v>222</v>
-      </c>
-      <c r="E166" s="3">
-        <v>39321</v>
+        <v>248</v>
+      </c>
+      <c r="E166" s="1">
+        <v>33604</v>
       </c>
       <c r="F166">
-        <v>2007</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B167" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C167" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D167" t="s">
-        <v>222</v>
-      </c>
-      <c r="E167" s="3">
-        <v>39731</v>
+        <v>248</v>
+      </c>
+      <c r="E167" s="1">
+        <v>35419</v>
       </c>
       <c r="F167">
-        <v>2008</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="B168" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C168" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D168" t="s">
-        <v>222</v>
-      </c>
-      <c r="E168" s="3">
-        <v>34124</v>
+        <v>248</v>
+      </c>
+      <c r="E168" s="1">
+        <v>26219</v>
       </c>
       <c r="F168">
-        <v>1993</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B169" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="C169" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D169" t="s">
-        <v>222</v>
-      </c>
-      <c r="E169" s="3">
-        <v>30573</v>
+        <v>248</v>
+      </c>
+      <c r="E169" s="1">
+        <v>37550</v>
       </c>
       <c r="F169">
-        <v>1983</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C170" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D170" t="s">
-        <v>222</v>
-      </c>
-      <c r="E170" s="3">
-        <v>33595</v>
+        <v>248</v>
+      </c>
+      <c r="E170" s="1">
+        <v>31778</v>
       </c>
       <c r="F170">
-        <v>1991</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="C171" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D171" t="s">
-        <v>222</v>
-      </c>
-      <c r="E171" s="3">
-        <v>25773</v>
+        <v>248</v>
+      </c>
+      <c r="E171" s="1">
+        <v>34163</v>
       </c>
       <c r="F171">
-        <v>1970</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="C172" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D172" t="s">
-        <v>222</v>
-      </c>
-      <c r="E172" s="3">
-        <v>35419</v>
+        <v>248</v>
+      </c>
+      <c r="E172" s="1">
+        <v>27427</v>
       </c>
       <c r="F172">
-        <v>1996</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C173" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="D173" t="s">
-        <v>222</v>
-      </c>
-      <c r="E173" s="3">
-        <v>26219</v>
+        <v>248</v>
+      </c>
+      <c r="E173" s="1">
+        <v>38141</v>
       </c>
       <c r="F173">
-        <v>1971</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C174" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="D174" t="s">
-        <v>222</v>
-      </c>
-      <c r="E174" s="3">
-        <v>34163</v>
+        <v>248</v>
+      </c>
+      <c r="E174" s="1">
+        <v>36830</v>
       </c>
       <c r="F174">
-        <v>1993</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" t="s">
+        <v>207</v>
+      </c>
+      <c r="C175" t="s">
+        <v>241</v>
+      </c>
+      <c r="D175" t="s">
+        <v>248</v>
+      </c>
+      <c r="E175" s="1">
+        <v>37484</v>
+      </c>
+      <c r="F175">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>170</v>
+      </c>
+      <c r="B176" t="s">
+        <v>202</v>
+      </c>
+      <c r="C176" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" t="s">
+        <v>248</v>
+      </c>
+      <c r="E176" s="1">
+        <v>28651</v>
+      </c>
+      <c r="F176">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>171</v>
+      </c>
+      <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="C177" t="s">
+        <v>241</v>
+      </c>
+      <c r="D177" t="s">
+        <v>248</v>
+      </c>
+      <c r="E177" s="1">
+        <v>28628</v>
+      </c>
+      <c r="F177">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>172</v>
+      </c>
+      <c r="B178" t="s">
+        <v>230</v>
+      </c>
+      <c r="C178" t="s">
+        <v>241</v>
+      </c>
+      <c r="D178" t="s">
+        <v>248</v>
+      </c>
+      <c r="E178" s="1">
+        <v>33056</v>
+      </c>
+      <c r="F178">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>174</v>
+      </c>
+      <c r="B179" t="s">
+        <v>202</v>
+      </c>
+      <c r="C179" t="s">
+        <v>241</v>
+      </c>
+      <c r="D179" t="s">
+        <v>248</v>
+      </c>
+      <c r="E179" s="1">
+        <v>34058</v>
+      </c>
+      <c r="F179">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" t="s">
+        <v>225</v>
+      </c>
+      <c r="C180" t="s">
+        <v>241</v>
+      </c>
+      <c r="D180" t="s">
+        <v>248</v>
+      </c>
+      <c r="E180" s="1">
+        <v>38686</v>
+      </c>
+      <c r="F180">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" t="s">
+        <v>241</v>
+      </c>
+      <c r="D181" t="s">
+        <v>248</v>
+      </c>
+      <c r="E181" s="1">
+        <v>30501</v>
+      </c>
+      <c r="F181">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
+        <v>241</v>
+      </c>
+      <c r="D182" t="s">
+        <v>248</v>
+      </c>
+      <c r="E182" s="1">
+        <v>22885</v>
+      </c>
+      <c r="F182">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" t="s">
+        <v>239</v>
+      </c>
+      <c r="C183" t="s">
+        <v>241</v>
+      </c>
+      <c r="D183" t="s">
+        <v>248</v>
+      </c>
+      <c r="E183" s="1">
+        <v>26864</v>
+      </c>
+      <c r="F183">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>179</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B184" t="s">
+        <v>212</v>
+      </c>
+      <c r="C184" t="s">
+        <v>241</v>
+      </c>
+      <c r="D184" t="s">
+        <v>248</v>
+      </c>
+      <c r="E184" s="1">
+        <v>37520</v>
+      </c>
+      <c r="F184">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>205</v>
+      </c>
+      <c r="C185" t="s">
+        <v>241</v>
+      </c>
+      <c r="D185" t="s">
+        <v>248</v>
+      </c>
+      <c r="E185" s="1">
+        <v>36853</v>
+      </c>
+      <c r="F185">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" t="s">
+        <v>248</v>
+      </c>
+      <c r="E186" s="1">
+        <v>22510</v>
+      </c>
+      <c r="F186">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>204</v>
+      </c>
+      <c r="C187" t="s">
+        <v>241</v>
+      </c>
+      <c r="D187" t="s">
+        <v>248</v>
+      </c>
+      <c r="E187" s="1">
+        <v>35388</v>
+      </c>
+      <c r="F187">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>223</v>
+      </c>
+      <c r="C188" t="s">
+        <v>241</v>
+      </c>
+      <c r="D188" t="s">
+        <v>248</v>
+      </c>
+      <c r="E188" s="1">
+        <v>27167</v>
+      </c>
+      <c r="F188">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>180</v>
+      </c>
+      <c r="B189" t="s">
+        <v>225</v>
+      </c>
+      <c r="C189" t="s">
+        <v>241</v>
+      </c>
+      <c r="D189" t="s">
+        <v>248</v>
+      </c>
+      <c r="E189" s="1">
+        <v>38513</v>
+      </c>
+      <c r="F189">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>181</v>
+      </c>
+      <c r="B190" t="s">
+        <v>223</v>
+      </c>
+      <c r="C190" t="s">
+        <v>241</v>
+      </c>
+      <c r="D190" t="s">
+        <v>248</v>
+      </c>
+      <c r="E190" s="1">
+        <v>37502</v>
+      </c>
+      <c r="F190">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>182</v>
+      </c>
+      <c r="B191" t="s">
+        <v>212</v>
+      </c>
+      <c r="C191" t="s">
+        <v>241</v>
+      </c>
+      <c r="D191" t="s">
+        <v>248</v>
+      </c>
+      <c r="E191" s="1">
+        <v>36875</v>
+      </c>
+      <c r="F191">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>183</v>
+      </c>
+      <c r="B192" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" t="s">
+        <v>241</v>
+      </c>
+      <c r="D192" t="s">
+        <v>248</v>
+      </c>
+      <c r="E192" s="1">
+        <v>37948</v>
+      </c>
+      <c r="F192">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+      <c r="B193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C193" t="s">
+        <v>241</v>
+      </c>
+      <c r="D193" t="s">
+        <v>248</v>
+      </c>
+      <c r="E193" s="1">
+        <v>39321</v>
+      </c>
+      <c r="F193">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>189</v>
+      </c>
+      <c r="B194" t="s">
+        <v>208</v>
+      </c>
+      <c r="C194" t="s">
+        <v>241</v>
+      </c>
+      <c r="D194" t="s">
+        <v>248</v>
+      </c>
+      <c r="E194" s="1">
+        <v>39731</v>
+      </c>
+      <c r="F194">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>190</v>
       </c>
-      <c r="C175" t="s">
-        <v>216</v>
-      </c>
-      <c r="D175" t="s">
-        <v>222</v>
-      </c>
-      <c r="E175" s="3">
-        <v>27427</v>
-      </c>
-      <c r="F175">
-        <v>1975</v>
+      <c r="B195" t="s">
+        <v>218</v>
+      </c>
+      <c r="C195" t="s">
+        <v>241</v>
+      </c>
+      <c r="D195" t="s">
+        <v>248</v>
+      </c>
+      <c r="E195" s="1">
+        <v>34124</v>
+      </c>
+      <c r="F195">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+      <c r="B196" t="s">
+        <v>207</v>
+      </c>
+      <c r="C196" t="s">
+        <v>241</v>
+      </c>
+      <c r="D196" t="s">
+        <v>248</v>
+      </c>
+      <c r="E196" s="1">
+        <v>37393</v>
+      </c>
+      <c r="F196">
+        <v>2002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F196">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
